--- a/TestCase/Testcase.xlsx
+++ b/TestCase/Testcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tài Liệu Học Tập\Môn thay thế\File thiết kế giao diên màn hình\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D093EF9-53F4-4021-8BA9-854EDF74EE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1990B32F-AB36-4060-BFD6-A0B3B01A8E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{92504E3D-3E70-4C79-BE6E-3498836E2911}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="110">
   <si>
     <t>CASE</t>
   </si>
@@ -352,13 +352,16 @@
   </si>
   <si>
     <t>Password more 6 character</t>
+  </si>
+  <si>
+    <t>OTP complete failed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,6 +462,13 @@
       <family val="2"/>
       <charset val="163"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -557,7 +567,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -635,9 +645,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -657,6 +664,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -973,10 +984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73645F9-C190-4D74-9F41-091D7DFAC3A9}">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1011,21 +1022,21 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="43"/>
+      <c r="G2" s="58"/>
     </row>
     <row r="3" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="44" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="43" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1039,8 +1050,8 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="57"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="56"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -1054,7 +1065,7 @@
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="46" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="4"/>
@@ -1073,7 +1084,7 @@
       <c r="E6" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="46" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="4"/>
@@ -1084,7 +1095,7 @@
         <v>1.3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="D7" s="31">
         <v>1234</v>
@@ -1092,7 +1103,7 @@
       <c r="E7" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="46" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="4"/>
@@ -1103,15 +1114,15 @@
         <v>1.4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="6">
-        <v>12345</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="31">
+        <v>123456</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="46" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="4"/>
@@ -1122,15 +1133,15 @@
         <v>1.5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="31">
-        <v>123456</v>
+        <v>11</v>
+      </c>
+      <c r="D9" s="6">
+        <v>12345</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="46" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="4"/>
@@ -1141,73 +1152,71 @@
         <v>1.6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="D10" s="31">
+        <v>123456</v>
+      </c>
       <c r="E10" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="46" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="7"/>
+      <c r="B11" s="22">
+        <v>1.7</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="47"/>
+      <c r="E11" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>8</v>
+      </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="21">
-        <v>2</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="3"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="22">
-        <v>2.1</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="B13" s="21">
+        <v>2</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="22">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>15</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="46" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -1217,18 +1226,18 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="22">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="6">
-        <v>123456</v>
+        <v>67</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="46" t="s">
         <v>8</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -1238,18 +1247,18 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="22">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>68</v>
+        <v>16</v>
+      </c>
+      <c r="D16" s="6">
+        <v>123456</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="46" t="s">
         <v>8</v>
       </c>
       <c r="G16" s="4" t="s">
@@ -1258,445 +1267,447 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="4"/>
+      <c r="B17" s="22">
+        <v>2.4</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="21">
-        <v>3</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="3"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="23">
-        <v>3.1</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="4"/>
+      <c r="B19" s="21">
+        <v>3</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="23">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="E20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="23">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F21" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="25">
-        <v>3.4</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="47" t="s">
+      <c r="B22" s="23">
+        <v>3.3</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="46" t="s">
         <v>8</v>
       </c>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="47"/>
+      <c r="B23" s="25">
+        <v>3.4</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>8</v>
+      </c>
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="24">
-        <v>4</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="9"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="25">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="B25" s="24">
+        <v>4</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="25">
         <v>4.2</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10" t="s">
+      <c r="D27" s="10"/>
+      <c r="E27" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="36"/>
-      <c r="B27" s="37">
+      <c r="F27" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="36"/>
+      <c r="B28" s="37">
         <v>4.3</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C28" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D28" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="39" t="s">
+      <c r="E28" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="38" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="26">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="4" t="s">
+      <c r="F28" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="38" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="10"/>
+      <c r="B29" s="26">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="27">
-        <v>5</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="11"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="25">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="B31" s="27">
+        <v>5</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
       <c r="F31" s="51"/>
-      <c r="G31" s="10"/>
+      <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="25">
-        <v>5.2</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>33</v>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="51"/>
+        <v>32</v>
+      </c>
+      <c r="F32" s="50"/>
       <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="25">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>25</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D33" s="10"/>
       <c r="E33" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F33" s="51"/>
+        <v>7</v>
+      </c>
+      <c r="F33" s="50"/>
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="26">
-        <v>5.4</v>
+      <c r="B34" s="25">
+        <v>5.3</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="F34" s="51"/>
+        <v>76</v>
+      </c>
+      <c r="F34" s="50"/>
       <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="25">
-        <v>5.5</v>
+      <c r="B35" s="26">
+        <v>5.4</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>27</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F35" s="51"/>
+        <v>98</v>
+      </c>
+      <c r="F35" s="50"/>
       <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="25">
-        <v>5.6</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="10"/>
+        <v>5.5</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="E36" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" s="51"/>
+        <v>97</v>
+      </c>
+      <c r="F36" s="50"/>
       <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="10"/>
+      <c r="B37" s="25">
+        <v>5.6</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="51"/>
+      <c r="E37" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="50"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="32"/>
-      <c r="B38" s="41">
-        <v>6</v>
-      </c>
-      <c r="C38" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="42"/>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="10"/>
     </row>
     <row r="39" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="32"/>
-      <c r="B39" s="33">
-        <v>6.1</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="F39" s="54"/>
-      <c r="G39" s="34"/>
+      <c r="B39" s="41">
+        <v>6</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="42"/>
     </row>
     <row r="40" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="32"/>
       <c r="B40" s="33">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="F40" s="54"/>
+        <v>37</v>
+      </c>
+      <c r="F40" s="53"/>
       <c r="G40" s="34"/>
     </row>
     <row r="41" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="32"/>
       <c r="B41" s="33">
+        <v>6.2</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="F41" s="53"/>
+      <c r="G41" s="34"/>
+    </row>
+    <row r="42" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="32"/>
+      <c r="B42" s="33">
         <v>6.3</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="C42" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34" t="s">
+      <c r="D42" s="34"/>
+      <c r="E42" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="F41" s="54"/>
-      <c r="G41" s="34"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="10"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="34"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
-      <c r="B43" s="27">
-        <v>7</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="11"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="10"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
-      <c r="B44" s="25">
-        <v>7.1</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F44" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="B44" s="27">
+        <v>7</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="11"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="25">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F45" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" s="46" t="s">
         <v>8</v>
       </c>
       <c r="G45" s="4" t="s">
@@ -1706,16 +1717,16 @@
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="25">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F46" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46" s="46" t="s">
         <v>8</v>
       </c>
       <c r="G46" s="4" t="s">
@@ -1725,16 +1736,16 @@
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="25">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F47" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" s="46" t="s">
         <v>8</v>
       </c>
       <c r="G47" s="4" t="s">
@@ -1744,104 +1755,104 @@
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="25">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D48" s="10"/>
       <c r="E48" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F48" s="51"/>
-      <c r="G48" s="10"/>
+        <v>91</v>
+      </c>
+      <c r="F48" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="25">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F49" s="51"/>
+        <v>44</v>
+      </c>
+      <c r="F49" s="50"/>
       <c r="G49" s="10"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="25">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F50" s="51"/>
+        <v>46</v>
+      </c>
+      <c r="F50" s="50"/>
       <c r="G50" s="10"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="10"/>
+      <c r="B51" s="25">
+        <v>7.7</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="51"/>
+      <c r="E51" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F51" s="50"/>
       <c r="G51" s="10"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="28">
-        <v>8</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="12"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="10"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="23">
-        <v>8.1</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F53" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="G53" s="13"/>
+      <c r="B53" s="28">
+        <v>8</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="12"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="23">
-        <v>8.1999999999999993</v>
+        <v>8.1</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F54" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="F54" s="55" t="s">
         <v>8</v>
       </c>
       <c r="G54" s="13"/>
@@ -1849,18 +1860,18 @@
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="23">
-        <v>8.3000000000000007</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D55" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F55" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="F55" s="55" t="s">
         <v>8</v>
       </c>
       <c r="G55" s="13"/>
@@ -1868,18 +1879,18 @@
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="23">
-        <v>8.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F56" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="F56" s="55" t="s">
         <v>8</v>
       </c>
       <c r="G56" s="13"/>
@@ -1887,18 +1898,18 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="23">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="D57" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F57" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="F57" s="55" t="s">
         <v>8</v>
       </c>
       <c r="G57" s="13"/>
@@ -1906,70 +1917,70 @@
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="23">
-        <v>8.6999999999999993</v>
+        <v>8.6</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F58" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="F58" s="55" t="s">
         <v>8</v>
       </c>
       <c r="G58" s="13"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="56"/>
+      <c r="B59" s="23">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F59" s="55" t="s">
+        <v>8</v>
+      </c>
       <c r="G59" s="13"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="28">
-        <v>9</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
       <c r="F60" s="55"/>
-      <c r="G60" s="12"/>
+      <c r="G60" s="13"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="23">
-        <v>9.1</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F61" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="G61" s="13"/>
+      <c r="B61" s="28">
+        <v>9</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="12"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="23">
-        <v>9.1999999999999993</v>
+        <v>9.1</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D62" s="13" t="s">
         <v>61</v>
@@ -1977,7 +1988,7 @@
       <c r="E62" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F62" s="56" t="s">
+      <c r="F62" s="55" t="s">
         <v>8</v>
       </c>
       <c r="G62" s="13"/>
@@ -1985,10 +1996,10 @@
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="23">
-        <v>9.3000000000000007</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D63" s="13" t="s">
         <v>61</v>
@@ -1996,59 +2007,59 @@
       <c r="E63" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F63" s="56" t="s">
+      <c r="F63" s="55" t="s">
         <v>8</v>
       </c>
       <c r="G63" s="13"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
-      <c r="B64" s="29"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="56"/>
+      <c r="B64" s="23">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F64" s="55" t="s">
+        <v>8</v>
+      </c>
       <c r="G64" s="13"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
-      <c r="B65" s="28">
-        <v>10</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
       <c r="F65" s="55"/>
-      <c r="G65" s="12"/>
+      <c r="G65" s="13"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
-      <c r="B66" s="23">
-        <v>10.1</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F66" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="G66" s="13"/>
+      <c r="B66" s="28">
+        <v>10</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="54"/>
+      <c r="G66" s="12"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="23">
-        <v>10.199999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D67" s="13" t="s">
         <v>61</v>
@@ -2056,7 +2067,7 @@
       <c r="E67" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F67" s="56" t="s">
+      <c r="F67" s="55" t="s">
         <v>8</v>
       </c>
       <c r="G67" s="13"/>
@@ -2064,18 +2075,18 @@
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="23">
-        <v>10.3</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E68" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F68" s="56" t="s">
+      <c r="F68" s="55" t="s">
         <v>8</v>
       </c>
       <c r="G68" s="13"/>
@@ -2083,193 +2094,230 @@
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="23">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F69" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="F69" s="55" t="s">
         <v>8</v>
       </c>
       <c r="G69" s="13"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="57"/>
+      <c r="B70" s="23">
+        <v>10.4</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F70" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" s="13"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B71" s="28">
+      <c r="A71" s="1"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="56"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B72" s="28">
         <v>11</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C72" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="55"/>
-      <c r="G71" s="12"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B72" s="23">
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="54"/>
+      <c r="G72" s="12"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B73" s="23">
         <v>11.1</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C73" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D72" s="13" t="s">
+      <c r="D73" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E72" s="13" t="s">
+      <c r="E73" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F72" s="56"/>
-      <c r="G72" s="13"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B73"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="13"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B74" s="28">
+      <c r="B74"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B75" s="28">
         <v>12</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C75" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="55"/>
-      <c r="G74" s="12"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B75" s="23">
-        <v>12.1</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="F75" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="G75" s="13"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="54"/>
+      <c r="G75" s="12"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B76" s="23">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>78</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="D76" s="13"/>
       <c r="E76" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F76" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="F76" s="55" t="s">
         <v>8</v>
       </c>
       <c r="G76" s="13"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B77" s="23">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="F77" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="F77" s="55" t="s">
         <v>8</v>
       </c>
       <c r="G77" s="13"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B78" s="23">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D78" s="58">
-        <v>1234</v>
+        <v>104</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F78" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F78" s="55" t="s">
         <v>8</v>
       </c>
       <c r="G78" s="13"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B79" s="23">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79" s="58">
+        <v>107</v>
+      </c>
+      <c r="D79" s="57">
         <v>1234</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="F79" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="F79" s="55" t="s">
         <v>8</v>
       </c>
       <c r="G79" s="13"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B80" s="23">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" s="58">
+        <v>80</v>
+      </c>
+      <c r="D80" s="57">
         <v>123456</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="F80" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="F80" s="55" t="s">
         <v>8</v>
       </c>
       <c r="G80" s="13"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B81" s="23">
+        <v>12.6</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="57">
+        <v>1234</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F81" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" s="13"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B82" s="23">
         <v>12.7</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C82" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="57">
+        <v>123456</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F82" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="G82" s="13"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B83" s="23">
+        <v>12.8</v>
+      </c>
+      <c r="C83" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10" t="s">
+      <c r="D83" s="10"/>
+      <c r="E83" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F81" s="56"/>
-      <c r="G81" s="13"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/TestCase/Testcase.xlsx
+++ b/TestCase/Testcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tài Liệu Học Tập\Môn thay thế\File thiết kế giao diên màn hình\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1990B32F-AB36-4060-BFD6-A0B3B01A8E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEC33B5-04F3-4BD2-A7F1-C75098C1D427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{92504E3D-3E70-4C79-BE6E-3498836E2911}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="131">
   <si>
     <t>CASE</t>
   </si>
@@ -355,6 +355,69 @@
   </si>
   <si>
     <t>OTP complete failed</t>
+  </si>
+  <si>
+    <t>Họ tên nhập ít hơn 6 kí tự</t>
+  </si>
+  <si>
+    <t>Dung</t>
+  </si>
+  <si>
+    <t>Full name more 6 character</t>
+  </si>
+  <si>
+    <t>Số điện thoại không đúng định dạng(10 số)</t>
+  </si>
+  <si>
+    <t>Mobile must 10 number</t>
+  </si>
+  <si>
+    <t>Đăng ký không thành công</t>
+  </si>
+  <si>
+    <t>Username or Mobile existed</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Cập nhật thất bại</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>Email đã tồn tại</t>
+  </si>
+  <si>
+    <t>Email existed</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>Nhắn tin</t>
+  </si>
+  <si>
+    <t>không thể gửi tin nhắn</t>
+  </si>
+  <si>
+    <t>Gửi văn bản</t>
+  </si>
+  <si>
+    <t>Helllo</t>
+  </si>
+  <si>
+    <t>Gửi hình ảnh</t>
+  </si>
+  <si>
+    <t>(hình ảnh)</t>
+  </si>
+  <si>
+    <t>Hiện lên trên danh sách tin nhắn dưới dạng hình ảnh</t>
+  </si>
+  <si>
+    <t>Hiện lên trên danh sách tin nhắn dưới dạng văn bản</t>
   </si>
 </sst>
 </file>
@@ -567,7 +630,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -664,10 +727,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -984,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73645F9-C190-4D74-9F41-091D7DFAC3A9}">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1022,10 +1088,10 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="58"/>
+      <c r="G2" s="60"/>
     </row>
     <row r="3" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
@@ -1119,7 +1185,7 @@
       <c r="D8" s="31">
         <v>123456</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="58" t="s">
         <v>109</v>
       </c>
       <c r="F8" s="46" t="s">
@@ -1171,11 +1237,13 @@
         <v>1.7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="5"/>
+        <v>110</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>111</v>
+      </c>
       <c r="E11" s="5" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="F11" s="46" t="s">
         <v>8</v>
@@ -1184,160 +1252,168 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="46"/>
+      <c r="B12" s="22">
+        <v>1.8</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="31">
+        <v>323565</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>8</v>
+      </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="21">
-        <v>2</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="3"/>
+      <c r="B13" s="22">
+        <v>1.9</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="31"/>
+      <c r="E13" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="22">
-        <v>2.1</v>
+      <c r="B14" s="59" t="s">
+        <v>119</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="F14" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="22">
-        <v>2.2000000000000002</v>
+      <c r="B15" s="59" t="s">
+        <v>122</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>15</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="F15" s="46"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="22">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="6">
-        <v>123456</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="22">
-        <v>2.4</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="B17" s="21">
+        <v>2</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="8"/>
+      <c r="B18" s="22">
+        <v>2.1</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="4"/>
+      <c r="E18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="21">
-        <v>3</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="3"/>
+      <c r="B19" s="22">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="23">
-        <v>3.1</v>
+      <c r="B20" s="22">
+        <v>2.2999999999999998</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>70</v>
+        <v>16</v>
+      </c>
+      <c r="D20" s="6">
+        <v>123456</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="F20" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="23">
-        <v>3.2</v>
+      <c r="B21" s="22">
+        <v>2.4</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="F21" s="46" t="s">
         <v>8</v>
@@ -1348,241 +1424,235 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="23">
-        <v>3.3</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" s="46" t="s">
-        <v>8</v>
-      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="46"/>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="25">
-        <v>3.4</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="4"/>
+      <c r="B23" s="21">
+        <v>3</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="46"/>
+      <c r="B24" s="23">
+        <v>3.1</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="46" t="s">
+        <v>8</v>
+      </c>
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="24">
-        <v>4</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="9"/>
+      <c r="B25" s="23">
+        <v>3.2</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-      <c r="B26" s="25">
-        <v>4.0999999999999996</v>
+      <c r="B26" s="23">
+        <v>3.3</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>76</v>
+        <v>87</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="F26" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="25">
-        <v>4.2</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>26</v>
+        <v>3.4</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="F27" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="36"/>
-      <c r="B28" s="37">
-        <v>4.3</v>
-      </c>
-      <c r="C28" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="F28" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="38" t="s">
-        <v>8</v>
-      </c>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="26">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="B29" s="24">
+        <v>4</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="10"/>
+      <c r="B30" s="25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="27">
-        <v>5</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="11"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="25">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" s="50"/>
-      <c r="G32" s="10"/>
+      <c r="B31" s="25">
+        <v>4.2</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="36"/>
+      <c r="B32" s="37">
+        <v>4.3</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="38" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="25">
-        <v>5.2</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="10"/>
+      <c r="B33" s="26">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="E33" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="50"/>
-      <c r="G33" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="F33" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="25">
-        <v>5.3</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>76</v>
-      </c>
+      <c r="B34" s="25"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
       <c r="F34" s="50"/>
       <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="26">
-        <v>5.4</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="F35" s="50"/>
-      <c r="G35" s="10"/>
+      <c r="B35" s="27">
+        <v>5</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="25">
-        <v>5.5</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>27</v>
-      </c>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="10"/>
       <c r="E36" s="10" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="F36" s="50"/>
       <c r="G36" s="10"/>
@@ -1590,343 +1660,333 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="25">
-        <v>5.6</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>28</v>
+        <v>5.2</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="10" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="F37" s="50"/>
       <c r="G37" s="10"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
+      <c r="B38" s="25">
+        <v>5.3</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>76</v>
+      </c>
       <c r="F38" s="50"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="32"/>
-      <c r="B39" s="41">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="26">
+        <v>5.4</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" s="50"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="25">
+        <v>5.5</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" s="50"/>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="25">
+        <v>5.6</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="50"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="32"/>
+      <c r="B43" s="41">
         <v>6</v>
       </c>
-      <c r="C39" s="42" t="s">
+      <c r="C43" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="42"/>
-    </row>
-    <row r="40" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="32"/>
-      <c r="B40" s="33">
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="42"/>
+    </row>
+    <row r="44" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="32"/>
+      <c r="B44" s="33">
         <v>6.1</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C44" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="D44" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="E40" s="34" t="s">
+      <c r="E44" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="F40" s="53"/>
-      <c r="G40" s="34"/>
-    </row>
-    <row r="41" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="32"/>
-      <c r="B41" s="33">
+      <c r="F44" s="53"/>
+      <c r="G44" s="34"/>
+    </row>
+    <row r="45" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="32"/>
+      <c r="B45" s="33">
         <v>6.2</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="C45" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="34" t="s">
+      <c r="D45" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E41" s="34" t="s">
+      <c r="E45" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="F41" s="53"/>
-      <c r="G41" s="34"/>
-    </row>
-    <row r="42" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="32"/>
-      <c r="B42" s="33">
+      <c r="F45" s="53"/>
+      <c r="G45" s="34"/>
+    </row>
+    <row r="46" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="32"/>
+      <c r="B46" s="33">
         <v>6.3</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C46" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34" t="s">
+      <c r="D46" s="34"/>
+      <c r="E46" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="F42" s="53"/>
-      <c r="G42" s="34"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="10"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="27">
-        <v>7</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="11"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="25">
-        <v>7.1</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F45" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="25">
-        <v>7.2</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F46" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="F46" s="53"/>
+      <c r="G46" s="34"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
-      <c r="B47" s="25">
-        <v>7.3</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>35</v>
-      </c>
+      <c r="B47" s="25"/>
+      <c r="C47" s="10"/>
       <c r="D47" s="10"/>
-      <c r="E47" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F47" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="E47" s="10"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
-      <c r="B48" s="25">
-        <v>7.4</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F48" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="B48" s="27">
+        <v>7</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="25">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F49" s="50"/>
-      <c r="G49" s="10"/>
+        <v>40</v>
+      </c>
+      <c r="F49" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="25">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F50" s="50"/>
-      <c r="G50" s="10"/>
+        <v>77</v>
+      </c>
+      <c r="F50" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="25">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D51" s="10"/>
       <c r="E51" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F51" s="50"/>
-      <c r="G51" s="10"/>
+        <v>41</v>
+      </c>
+      <c r="F51" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="10"/>
+      <c r="B52" s="25">
+        <v>7.4</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="10"/>
+      <c r="E52" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F52" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="28">
-        <v>8</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="12"/>
+      <c r="B53" s="25">
+        <v>7.5</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" s="50"/>
+      <c r="G53" s="10"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="23">
-        <v>8.1</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F54" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="G54" s="13"/>
+      <c r="B54" s="25">
+        <v>7.6</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F54" s="50"/>
+      <c r="G54" s="10"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
-      <c r="B55" s="23">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F55" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="G55" s="13"/>
+      <c r="B55" s="25">
+        <v>7.7</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F55" s="50"/>
+      <c r="G55" s="10"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
-      <c r="B56" s="23">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F56" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="G56" s="13"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="10"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
-      <c r="B57" s="23">
-        <v>8.5</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F57" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="G57" s="13"/>
+      <c r="B57" s="28">
+        <v>8</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="12"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="23">
-        <v>8.6</v>
+        <v>8.1</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F58" s="55" t="s">
         <v>8</v>
@@ -1936,16 +1996,16 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="23">
-        <v>8.6999999999999993</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F59" s="55" t="s">
         <v>8</v>
@@ -1954,39 +2014,55 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="55"/>
+      <c r="B60" s="23">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F60" s="55" t="s">
+        <v>8</v>
+      </c>
       <c r="G60" s="13"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="28">
-        <v>9</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="54"/>
-      <c r="G61" s="12"/>
+      <c r="B61" s="23">
+        <v>8.5</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F61" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" s="13"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="23">
-        <v>9.1</v>
+        <v>8.6</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="F62" s="55" t="s">
         <v>8</v>
@@ -1996,16 +2072,16 @@
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="23">
-        <v>9.1999999999999993</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="F63" s="55" t="s">
         <v>8</v>
@@ -2015,16 +2091,16 @@
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="23">
-        <v>9.3000000000000007</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F64" s="55" t="s">
         <v>8</v>
@@ -2033,52 +2109,50 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
-      <c r="B65" s="29"/>
-      <c r="C65" s="13"/>
+      <c r="B65" s="23">
+        <v>8.9</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>118</v>
+      </c>
       <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="55"/>
+      <c r="E65" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F65" s="55" t="s">
+        <v>8</v>
+      </c>
       <c r="G65" s="13"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
-      <c r="B66" s="28">
-        <v>10</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="54"/>
-      <c r="G66" s="12"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="55"/>
+      <c r="G66" s="13"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
-      <c r="B67" s="23">
-        <v>10.1</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F67" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="G67" s="13"/>
+      <c r="B67" s="28">
+        <v>9</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="54"/>
+      <c r="G67" s="12"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="23">
-        <v>10.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D68" s="13" t="s">
         <v>61</v>
@@ -2094,13 +2168,13 @@
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="23">
-        <v>10.3</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E69" s="13" t="s">
         <v>30</v>
@@ -2113,16 +2187,16 @@
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="23">
-        <v>10.4</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="F70" s="55" t="s">
         <v>8</v>
@@ -2131,19 +2205,20 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="56"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="13"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
       <c r="B72" s="28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
@@ -2151,11 +2226,12 @@
       <c r="G72" s="12"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="1"/>
       <c r="B73" s="23">
-        <v>11.1</v>
+        <v>10.1</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="D73" s="13" t="s">
         <v>61</v>
@@ -2163,34 +2239,62 @@
       <c r="E73" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F73" s="55"/>
+      <c r="F73" s="55" t="s">
+        <v>8</v>
+      </c>
       <c r="G73" s="13"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B74"/>
+      <c r="A74" s="1"/>
+      <c r="B74" s="23">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F74" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74" s="13"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B75" s="28">
-        <v>12</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="54"/>
-      <c r="G75" s="12"/>
+      <c r="A75" s="1"/>
+      <c r="B75" s="23">
+        <v>10.3</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F75" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="G75" s="13"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
       <c r="B76" s="23">
-        <v>12.1</v>
+        <v>10.4</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D76" s="13"/>
+        <v>65</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="E76" s="13" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="F76" s="55" t="s">
         <v>8</v>
@@ -2198,107 +2302,67 @@
       <c r="G76" s="13"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B77" s="23">
-        <v>12.2</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F77" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="G77" s="13"/>
+      <c r="A77" s="1"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="56"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B78" s="23">
-        <v>12.3</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E78" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="F78" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="G78" s="13"/>
+      <c r="B78" s="28">
+        <v>11</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="54"/>
+      <c r="G78" s="12"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B79" s="23">
-        <v>12.4</v>
+        <v>11.1</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D79" s="57">
-        <v>1234</v>
+        <v>94</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F79" s="55" t="s">
-        <v>8</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F79" s="55"/>
       <c r="G79" s="13"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B80" s="23">
-        <v>12.5</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D80" s="57">
-        <v>123456</v>
-      </c>
-      <c r="E80" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F80" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="G80" s="13"/>
+      <c r="B80"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B81" s="23">
-        <v>12.6</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81" s="57">
-        <v>1234</v>
-      </c>
-      <c r="E81" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="F81" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="G81" s="13"/>
+      <c r="B81" s="28">
+        <v>12</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="54"/>
+      <c r="G81" s="12"/>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B82" s="23">
-        <v>12.7</v>
+        <v>12.1</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" s="57">
-        <v>123456</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="D82" s="13"/>
       <c r="E82" s="13" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="F82" s="55" t="s">
         <v>8</v>
@@ -2307,22 +2371,210 @@
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B83" s="23">
+        <v>12.2</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F83" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="13"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B84" s="23">
+        <v>12.3</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F84" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="G84" s="13"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B85" s="23">
+        <v>12.4</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D85" s="57">
+        <v>1234</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F85" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="G85" s="13"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B86" s="23">
+        <v>12.5</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D86" s="57">
+        <v>123456</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F86" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="G86" s="13"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B87" s="23">
+        <v>12.6</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="57">
+        <v>1234</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F87" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="G87" s="13"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B88" s="23">
+        <v>12.7</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="57">
+        <v>123456</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F88" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="G88" s="13"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B89" s="23">
         <v>12.8</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C89" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10" t="s">
+      <c r="D89" s="10"/>
+      <c r="E89" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F83" s="55"/>
-      <c r="G83" s="13"/>
+      <c r="F89" s="55"/>
+      <c r="G89" s="13"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B91" s="28">
+        <v>13</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="54"/>
+      <c r="G91" s="12"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B92" s="23">
+        <v>13.1</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F92" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="G92" s="13"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B93" s="23">
+        <v>13.2</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F93" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="G93" s="13"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B94" s="23">
+        <v>13.3</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F94" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="13"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B95"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B96"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>